--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>729.0</v>
+        <v>713.0</v>
       </c>
       <c r="G7" t="n">
-        <v>377.0</v>
+        <v>371.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>1131.0</v>
+        <v>1060.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -313,7 +313,7 @@
         <v>713.0</v>
       </c>
       <c r="G7" t="n">
-        <v>371.0</v>
+        <v>374.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -492,7 +492,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>995.0</v>
+        <v>997.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -518,7 +518,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>2735.0</v>
+        <v>2737.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -602,7 +602,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>1060.0</v>
+        <v>1067.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -310,7 +310,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>713.0</v>
+        <v>707.0</v>
       </c>
       <c r="G7" t="n">
         <v>374.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -209,7 +209,7 @@
         <v>8.0</v>
       </c>
       <c r="G3" t="n">
-        <v>143.0</v>
+        <v>144.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -232,7 +232,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="G4" t="n">
         <v>39.0</v>
@@ -284,13 +284,13 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>9062.0</v>
+        <v>9101.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4614.0</v>
+        <v>4540.0</v>
       </c>
       <c r="H6" t="n">
-        <v>331.0</v>
+        <v>344.0</v>
       </c>
     </row>
     <row r="7">
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>707.0</v>
+        <v>631.0</v>
       </c>
       <c r="G7" t="n">
-        <v>374.0</v>
+        <v>360.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -336,13 +336,13 @@
         <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>6723.0</v>
+        <v>6895.0</v>
       </c>
       <c r="G8" t="n">
-        <v>14394.0</v>
+        <v>14391.0</v>
       </c>
       <c r="H8" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -492,13 +492,13 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>997.0</v>
+        <v>936.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
       </c>
       <c r="H14" t="n">
-        <v>203.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>2737.0</v>
+        <v>2738.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -570,7 +570,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>15658.0</v>
+        <v>16502.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -596,7 +596,7 @@
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>2380.0</v>
+        <v>2062.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>1067.0</v>
+        <v>633.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -648,7 +648,7 @@
         <v>22</v>
       </c>
       <c r="F20" t="n">
-        <v>334.0</v>
+        <v>382.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
@@ -674,13 +674,13 @@
         <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>2003.0</v>
+        <v>2199.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>2019.0</v>
+        <v>1950.0</v>
       </c>
     </row>
     <row r="22">
@@ -697,16 +697,16 @@
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" t="n">
-        <v>360.0</v>
+        <v>2560.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
       </c>
       <c r="H22" t="n">
-        <v>6.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="23">
@@ -723,16 +723,16 @@
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>3007.0</v>
+        <v>137.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
       </c>
       <c r="H23" t="n">
-        <v>101.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -284,13 +284,13 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>9101.0</v>
+        <v>9091.0</v>
       </c>
       <c r="G6" t="n">
         <v>4540.0</v>
       </c>
       <c r="H6" t="n">
-        <v>344.0</v>
+        <v>354.0</v>
       </c>
     </row>
     <row r="7">
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>631.0</v>
+        <v>618.0</v>
       </c>
       <c r="G7" t="n">
-        <v>360.0</v>
+        <v>351.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -287,7 +287,7 @@
         <v>9091.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4540.0</v>
+        <v>4539.0</v>
       </c>
       <c r="H6" t="n">
         <v>354.0</v>
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>618.0</v>
+        <v>613.0</v>
       </c>
       <c r="G7" t="n">
-        <v>351.0</v>
+        <v>352.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -336,13 +336,13 @@
         <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>6895.0</v>
+        <v>6845.0</v>
       </c>
       <c r="G8" t="n">
         <v>14391.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="9">

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -284,13 +284,13 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>9091.0</v>
+        <v>9075.0</v>
       </c>
       <c r="G6" t="n">
         <v>4539.0</v>
       </c>
       <c r="H6" t="n">
-        <v>354.0</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="7">
@@ -336,10 +336,10 @@
         <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>6845.0</v>
+        <v>7195.0</v>
       </c>
       <c r="G8" t="n">
-        <v>14391.0</v>
+        <v>14041.0</v>
       </c>
       <c r="H8" t="n">
         <v>50.0</v>
@@ -498,7 +498,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="n">
-        <v>219.0</v>
+        <v>194.0</v>
       </c>
     </row>
     <row r="15">
@@ -524,7 +524,7 @@
         <v>0.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="16">
@@ -596,7 +596,7 @@
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>2062.0</v>
+        <v>2059.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>633.0</v>
+        <v>615.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -232,7 +232,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="G4" t="n">
         <v>39.0</v>
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>613.0</v>
+        <v>611.0</v>
       </c>
       <c r="G7" t="n">
-        <v>352.0</v>
+        <v>348.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -518,7 +518,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>2738.0</v>
+        <v>2741.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -209,7 +209,7 @@
         <v>8.0</v>
       </c>
       <c r="G3" t="n">
-        <v>144.0</v>
+        <v>140.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -235,7 +235,7 @@
         <v>16.0</v>
       </c>
       <c r="G4" t="n">
-        <v>39.0</v>
+        <v>43.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>611.0</v>
+        <v>596.0</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0</v>
+        <v>326.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>615.0</v>
+        <v>612.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -209,7 +209,7 @@
         <v>8.0</v>
       </c>
       <c r="G3" t="n">
-        <v>140.0</v>
+        <v>139.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -235,7 +235,7 @@
         <v>16.0</v>
       </c>
       <c r="G4" t="n">
-        <v>43.0</v>
+        <v>31.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -284,13 +284,13 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>9075.0</v>
+        <v>9037.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4539.0</v>
+        <v>4443.0</v>
       </c>
       <c r="H6" t="n">
-        <v>370.0</v>
+        <v>327.0</v>
       </c>
     </row>
     <row r="7">
@@ -313,7 +313,7 @@
         <v>596.0</v>
       </c>
       <c r="G7" t="n">
-        <v>326.0</v>
+        <v>285.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -440,7 +440,7 @@
         <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -518,7 +518,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>2741.0</v>
+        <v>2740.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>612.0</v>
+        <v>608.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -648,7 +648,7 @@
         <v>22</v>
       </c>
       <c r="F20" t="n">
-        <v>382.0</v>
+        <v>362.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>608.0</v>
+        <v>602.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -680,7 +680,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>1950.0</v>
+        <v>1929.0</v>
       </c>
     </row>
     <row r="22">

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>596.0</v>
+        <v>592.0</v>
       </c>
       <c r="G7" t="n">
-        <v>285.0</v>
+        <v>287.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -284,13 +284,13 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>9037.0</v>
+        <v>9023.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4443.0</v>
+        <v>4435.0</v>
       </c>
       <c r="H6" t="n">
-        <v>327.0</v>
+        <v>324.0</v>
       </c>
     </row>
     <row r="7">
@@ -313,7 +313,7 @@
         <v>592.0</v>
       </c>
       <c r="G7" t="n">
-        <v>287.0</v>
+        <v>313.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>602.0</v>
+        <v>599.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>592.0</v>
+        <v>589.0</v>
       </c>
       <c r="G7" t="n">
-        <v>313.0</v>
+        <v>310.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>599.0</v>
+        <v>586.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>589.0</v>
+        <v>586.0</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0</v>
+        <v>313.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -596,7 +596,7 @@
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>2059.0</v>
+        <v>2052.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>586.0</v>
+        <v>581.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -313,7 +313,7 @@
         <v>586.0</v>
       </c>
       <c r="G7" t="n">
-        <v>313.0</v>
+        <v>316.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -284,13 +284,13 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>9023.0</v>
+        <v>8966.0</v>
       </c>
       <c r="G6" t="n">
         <v>4435.0</v>
       </c>
       <c r="H6" t="n">
-        <v>324.0</v>
+        <v>380.0</v>
       </c>
     </row>
     <row r="7">
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>586.0</v>
+        <v>582.0</v>
       </c>
       <c r="G7" t="n">
-        <v>316.0</v>
+        <v>315.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>581.0</v>
+        <v>578.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -700,7 +700,7 @@
         <v>22</v>
       </c>
       <c r="F22" t="n">
-        <v>2560.0</v>
+        <v>1882.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -284,7 +284,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>8966.0</v>
+        <v>8942.0</v>
       </c>
       <c r="G6" t="n">
         <v>4435.0</v>
@@ -310,7 +310,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>582.0</v>
+        <v>580.0</v>
       </c>
       <c r="G7" t="n">
         <v>315.0</v>
@@ -680,7 +680,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>1929.0</v>
+        <v>1447.0</v>
       </c>
     </row>
     <row r="22">
@@ -700,7 +700,7 @@
         <v>22</v>
       </c>
       <c r="F22" t="n">
-        <v>1882.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -336,10 +336,10 @@
         <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>7195.0</v>
+        <v>7073.0</v>
       </c>
       <c r="G8" t="n">
-        <v>14041.0</v>
+        <v>13333.0</v>
       </c>
       <c r="H8" t="n">
         <v>50.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>578.0</v>
+        <v>565.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="22">
   <si>
     <t>Area</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Ca</t>
   </si>
   <si>
-    <t>Cl</t>
-  </si>
-  <si>
     <t>INF</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>Campania</t>
   </si>
   <si>
-    <t>Calabria</t>
-  </si>
-  <si>
     <t>PZ</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
   </si>
   <si>
     <t>SA</t>
-  </si>
-  <si>
-    <t>RC</t>
   </si>
   <si>
     <t>Collezione faunistica - giardino zoologico</t>
@@ -168,16 +159,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
         <v>13.0</v>
@@ -194,16 +185,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
         <v>8.0</v>
@@ -220,16 +211,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
         <v>16.0</v>
@@ -246,16 +237,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
         <v>2241.0</v>
@@ -272,16 +263,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>8942.0</v>
@@ -298,22 +289,22 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>580.0</v>
+        <v>549.0</v>
       </c>
       <c r="G7" t="n">
-        <v>315.0</v>
+        <v>317.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -324,16 +315,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
         <v>7073.0</v>
@@ -350,16 +341,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -376,16 +367,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" t="n">
         <v>7.0</v>
@@ -402,16 +393,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
         <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
       </c>
       <c r="F11" t="n">
         <v>101.0</v>
@@ -428,16 +419,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
         <v>21.0</v>
@@ -454,16 +445,16 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F13" t="n">
         <v>6027.0</v>
@@ -480,16 +471,16 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
         <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
       </c>
       <c r="F14" t="n">
         <v>936.0</v>
@@ -506,16 +497,16 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
         <v>2740.0</v>
@@ -532,16 +523,16 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n">
         <v>12.0</v>
@@ -558,16 +549,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
         <v>16502.0</v>
@@ -576,162 +567,6 @@
         <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2052.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="n">
-        <v>565.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="n">
-        <v>362.0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2199.0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1447.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1200.0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>84.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="n">
-        <v>137.0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -275,10 +275,10 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>8942.0</v>
+        <v>8918.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4435.0</v>
+        <v>4454.0</v>
       </c>
       <c r="H6" t="n">
         <v>380.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -278,10 +278,10 @@
         <v>8918.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4454.0</v>
+        <v>4435.0</v>
       </c>
       <c r="H6" t="n">
-        <v>380.0</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="7">
@@ -304,7 +304,7 @@
         <v>549.0</v>
       </c>
       <c r="G7" t="n">
-        <v>317.0</v>
+        <v>346.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -223,7 +223,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="G4" t="n">
         <v>31.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>549.0</v>
+        <v>545.0</v>
       </c>
       <c r="G7" t="n">
-        <v>346.0</v>
+        <v>356.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -327,7 +327,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>7073.0</v>
+        <v>6709.0</v>
       </c>
       <c r="G8" t="n">
         <v>13333.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2740.0</v>
+        <v>2727.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>8918.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4435.0</v>
+        <v>4431.0</v>
       </c>
       <c r="H6" t="n">
         <v>370.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>545.0</v>
+        <v>540.0</v>
       </c>
       <c r="G7" t="n">
-        <v>356.0</v>
+        <v>360.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -171,7 +171,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -223,10 +223,10 @@
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="G4" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -249,7 +249,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>2241.0</v>
+        <v>2184.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -275,13 +275,13 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>8918.0</v>
+        <v>8901.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4431.0</v>
+        <v>4563.0</v>
       </c>
       <c r="H6" t="n">
-        <v>370.0</v>
+        <v>338.0</v>
       </c>
     </row>
     <row r="7">
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>540.0</v>
+        <v>532.0</v>
       </c>
       <c r="G7" t="n">
-        <v>360.0</v>
+        <v>340.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -327,13 +327,13 @@
         <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>6709.0</v>
+        <v>6704.0</v>
       </c>
       <c r="G8" t="n">
-        <v>13333.0</v>
+        <v>13326.0</v>
       </c>
       <c r="H8" t="n">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
@@ -483,13 +483,13 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>936.0</v>
+        <v>945.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
       </c>
       <c r="H14" t="n">
-        <v>194.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="15">
@@ -561,7 +561,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>16502.0</v>
+        <v>16614.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -223,7 +223,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="G4" t="n">
         <v>34.0</v>
@@ -278,7 +278,7 @@
         <v>8901.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4563.0</v>
+        <v>4559.0</v>
       </c>
       <c r="H6" t="n">
         <v>338.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>532.0</v>
+        <v>529.0</v>
       </c>
       <c r="G7" t="n">
-        <v>340.0</v>
+        <v>334.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -330,7 +330,7 @@
         <v>6704.0</v>
       </c>
       <c r="G8" t="n">
-        <v>13326.0</v>
+        <v>13681.0</v>
       </c>
       <c r="H8" t="n">
         <v>10.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>8901.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4559.0</v>
+        <v>4560.0</v>
       </c>
       <c r="H6" t="n">
         <v>338.0</v>
@@ -304,7 +304,7 @@
         <v>529.0</v>
       </c>
       <c r="G7" t="n">
-        <v>334.0</v>
+        <v>336.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -330,7 +330,7 @@
         <v>6704.0</v>
       </c>
       <c r="G8" t="n">
-        <v>13681.0</v>
+        <v>13678.0</v>
       </c>
       <c r="H8" t="n">
         <v>10.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -275,7 +275,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>8901.0</v>
+        <v>8898.0</v>
       </c>
       <c r="G6" t="n">
         <v>4560.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>529.0</v>
+        <v>527.0</v>
       </c>
       <c r="G7" t="n">
-        <v>336.0</v>
+        <v>339.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2727.0</v>
+        <v>2729.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>8898.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4560.0</v>
+        <v>4692.0</v>
       </c>
       <c r="H6" t="n">
         <v>338.0</v>
@@ -304,7 +304,7 @@
         <v>527.0</v>
       </c>
       <c r="G7" t="n">
-        <v>339.0</v>
+        <v>354.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -330,7 +330,7 @@
         <v>6704.0</v>
       </c>
       <c r="G8" t="n">
-        <v>13678.0</v>
+        <v>14508.0</v>
       </c>
       <c r="H8" t="n">
         <v>10.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -278,10 +278,10 @@
         <v>8898.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4692.0</v>
+        <v>4675.0</v>
       </c>
       <c r="H6" t="n">
-        <v>338.0</v>
+        <v>336.0</v>
       </c>
     </row>
     <row r="7">
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>527.0</v>
+        <v>521.0</v>
       </c>
       <c r="G7" t="n">
-        <v>354.0</v>
+        <v>367.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -330,7 +330,7 @@
         <v>6704.0</v>
       </c>
       <c r="G8" t="n">
-        <v>14508.0</v>
+        <v>13800.0</v>
       </c>
       <c r="H8" t="n">
         <v>10.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>521.0</v>
       </c>
       <c r="G7" t="n">
-        <v>367.0</v>
+        <v>379.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>8898.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4675.0</v>
+        <v>4674.0</v>
       </c>
       <c r="H6" t="n">
         <v>336.0</v>
@@ -304,7 +304,7 @@
         <v>521.0</v>
       </c>
       <c r="G7" t="n">
-        <v>379.0</v>
+        <v>378.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -330,7 +330,7 @@
         <v>6704.0</v>
       </c>
       <c r="G8" t="n">
-        <v>13800.0</v>
+        <v>14508.0</v>
       </c>
       <c r="H8" t="n">
         <v>10.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>521.0</v>
       </c>
       <c r="G7" t="n">
-        <v>378.0</v>
+        <v>375.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>8898.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4674.0</v>
+        <v>4667.0</v>
       </c>
       <c r="H6" t="n">
         <v>336.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>521.0</v>
+        <v>518.0</v>
       </c>
       <c r="G7" t="n">
-        <v>375.0</v>
+        <v>384.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>518.0</v>
       </c>
       <c r="G7" t="n">
-        <v>384.0</v>
+        <v>386.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>518.0</v>
+        <v>514.0</v>
       </c>
       <c r="G7" t="n">
-        <v>386.0</v>
+        <v>381.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>514.0</v>
+        <v>509.0</v>
       </c>
       <c r="G7" t="n">
-        <v>381.0</v>
+        <v>385.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>509.0</v>
+        <v>502.0</v>
       </c>
       <c r="G7" t="n">
-        <v>385.0</v>
+        <v>395.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>502.0</v>
       </c>
       <c r="G7" t="n">
-        <v>395.0</v>
+        <v>398.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>502.0</v>
+        <v>500.0</v>
       </c>
       <c r="G7" t="n">
-        <v>398.0</v>
+        <v>395.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -327,10 +327,10 @@
         <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>6704.0</v>
+        <v>6388.0</v>
       </c>
       <c r="G8" t="n">
-        <v>14508.0</v>
+        <v>14824.0</v>
       </c>
       <c r="H8" t="n">
         <v>10.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -275,7 +275,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>8898.0</v>
+        <v>8886.0</v>
       </c>
       <c r="G6" t="n">
         <v>4667.0</v>
@@ -301,7 +301,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>500.0</v>
+        <v>495.0</v>
       </c>
       <c r="G7" t="n">
         <v>395.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>495.0</v>
+        <v>493.0</v>
       </c>
       <c r="G7" t="n">
-        <v>395.0</v>
+        <v>399.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2729.0</v>
+        <v>2731.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -275,10 +275,10 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>8886.0</v>
+        <v>8836.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4667.0</v>
+        <v>4748.0</v>
       </c>
       <c r="H6" t="n">
         <v>336.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>493.0</v>
+        <v>480.0</v>
       </c>
       <c r="G7" t="n">
-        <v>399.0</v>
+        <v>420.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -356,7 +356,7 @@
         <v>0.0</v>
       </c>
       <c r="G9" t="n">
-        <v>4.0</v>
+        <v>19.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
@@ -431,7 +431,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -535,7 +535,7 @@
         <v>21</v>
       </c>
       <c r="F16" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>480.0</v>
       </c>
       <c r="G7" t="n">
-        <v>420.0</v>
+        <v>421.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2731.0</v>
+        <v>2735.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>480.0</v>
+        <v>478.0</v>
       </c>
       <c r="G7" t="n">
-        <v>421.0</v>
+        <v>431.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>478.0</v>
+        <v>472.0</v>
       </c>
       <c r="G7" t="n">
-        <v>431.0</v>
+        <v>437.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>8836.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4748.0</v>
+        <v>4746.0</v>
       </c>
       <c r="H6" t="n">
         <v>336.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>472.0</v>
+        <v>468.0</v>
       </c>
       <c r="G7" t="n">
-        <v>437.0</v>
+        <v>444.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -330,7 +330,7 @@
         <v>6388.0</v>
       </c>
       <c r="G8" t="n">
-        <v>14824.0</v>
+        <v>14826.0</v>
       </c>
       <c r="H8" t="n">
         <v>10.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>8836.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4746.0</v>
+        <v>4745.0</v>
       </c>
       <c r="H6" t="n">
         <v>336.0</v>
@@ -304,7 +304,7 @@
         <v>468.0</v>
       </c>
       <c r="G7" t="n">
-        <v>444.0</v>
+        <v>453.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2735.0</v>
+        <v>2736.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>468.0</v>
+        <v>464.0</v>
       </c>
       <c r="G7" t="n">
-        <v>453.0</v>
+        <v>474.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -330,7 +330,7 @@
         <v>6388.0</v>
       </c>
       <c r="G8" t="n">
-        <v>14826.0</v>
+        <v>14825.0</v>
       </c>
       <c r="H8" t="n">
         <v>10.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2736.0</v>
+        <v>2733.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>464.0</v>
       </c>
       <c r="G7" t="n">
-        <v>474.0</v>
+        <v>475.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>464.0</v>
+        <v>463.0</v>
       </c>
       <c r="G7" t="n">
-        <v>475.0</v>
+        <v>483.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -431,7 +431,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -457,7 +457,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>6027.0</v>
+        <v>6016.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>463.0</v>
       </c>
       <c r="G7" t="n">
-        <v>483.0</v>
+        <v>479.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2733.0</v>
+        <v>2734.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -301,7 +301,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>463.0</v>
+        <v>457.0</v>
       </c>
       <c r="G7" t="n">
         <v>479.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>457.0</v>
+        <v>448.0</v>
       </c>
       <c r="G7" t="n">
-        <v>479.0</v>
+        <v>495.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2734.0</v>
+        <v>2592.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -457,7 +457,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>6016.0</v>
+        <v>4858.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>8836.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4745.0</v>
+        <v>4730.0</v>
       </c>
       <c r="H6" t="n">
         <v>336.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>448.0</v>
+        <v>461.0</v>
       </c>
       <c r="G7" t="n">
-        <v>495.0</v>
+        <v>497.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -457,7 +457,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>4858.0</v>
+        <v>4830.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2592.0</v>
+        <v>2594.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>461.0</v>
       </c>
       <c r="G7" t="n">
-        <v>497.0</v>
+        <v>508.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2594.0</v>
+        <v>2596.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -301,7 +301,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>461.0</v>
+        <v>453.0</v>
       </c>
       <c r="G7" t="n">
         <v>508.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>453.0</v>
+        <v>450.0</v>
       </c>
       <c r="G7" t="n">
-        <v>508.0</v>
+        <v>510.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -561,7 +561,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>16614.0</v>
+        <v>16616.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>8836.0</v>
       </c>
       <c r="G6" t="n">
-        <v>4730.0</v>
+        <v>4712.0</v>
       </c>
       <c r="H6" t="n">
         <v>336.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>450.0</v>
+        <v>445.0</v>
       </c>
       <c r="G7" t="n">
-        <v>510.0</v>
+        <v>516.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>445.0</v>
+        <v>441.0</v>
       </c>
       <c r="G7" t="n">
-        <v>516.0</v>
+        <v>540.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2596.0</v>
+        <v>2594.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -249,7 +249,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>2184.0</v>
+        <v>844.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -275,7 +275,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>8836.0</v>
+        <v>8834.0</v>
       </c>
       <c r="G6" t="n">
         <v>4712.0</v>
@@ -304,7 +304,7 @@
         <v>441.0</v>
       </c>
       <c r="G7" t="n">
-        <v>540.0</v>
+        <v>544.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -330,7 +330,7 @@
         <v>6388.0</v>
       </c>
       <c r="G8" t="n">
-        <v>14825.0</v>
+        <v>14827.0</v>
       </c>
       <c r="H8" t="n">
         <v>10.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2594.0</v>
+        <v>2596.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>441.0</v>
       </c>
       <c r="G7" t="n">
-        <v>544.0</v>
+        <v>551.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -327,7 +327,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>6388.0</v>
+        <v>6383.0</v>
       </c>
       <c r="G8" t="n">
         <v>14827.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2596.0</v>
+        <v>2599.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>441.0</v>
+        <v>439.0</v>
       </c>
       <c r="G7" t="n">
-        <v>551.0</v>
+        <v>580.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2599.0</v>
+        <v>2603.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>439.0</v>
       </c>
       <c r="G7" t="n">
-        <v>580.0</v>
+        <v>586.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2603.0</v>
+        <v>2606.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>439.0</v>
+        <v>435.0</v>
       </c>
       <c r="G7" t="n">
-        <v>586.0</v>
+        <v>603.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2606.0</v>
+        <v>2609.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>435.0</v>
       </c>
       <c r="G7" t="n">
-        <v>603.0</v>
+        <v>604.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2609.0</v>
+        <v>2611.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>435.0</v>
       </c>
       <c r="G7" t="n">
-        <v>604.0</v>
+        <v>608.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>2611.0</v>
+        <v>2613.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/Capi_ZP.xlsx
+++ b/Download/Capi_ZP.xlsx
@@ -223,10 +223,10 @@
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G4" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -304,7 +304,7 @@
         <v>435.0</v>
       </c>
       <c r="G7" t="n">
-        <v>608.0</v>
+        <v>630.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.0</v>
